--- a/Tagebuch/02_Tagebuch_Wang.xlsx
+++ b/Tagebuch/02_Tagebuch_Wang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>Ideensammlung</t>
+  </si>
+  <si>
+    <t>Feinplannung erstellt</t>
+  </si>
+  <si>
+    <t>Feinplannung erweitert</t>
+  </si>
+  <si>
+    <t>Feinplannung fertiggestellt</t>
+  </si>
+  <si>
+    <t>Mit XNA herumgespielt</t>
+  </si>
+  <si>
+    <t>Spieloberflächedesign</t>
   </si>
 </sst>
 </file>
@@ -272,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +667,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,45 +750,99 @@
       <c r="A6" s="4">
         <v>42271</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="17"/>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="17"/>
+      <c r="A7" s="4">
+        <v>42275</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="17"/>
+      <c r="A8" s="4">
+        <v>42277</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="17"/>
+      <c r="A9" s="4">
+        <v>42277</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="17"/>
+      <c r="A10" s="23">
+        <v>42278</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="17"/>
+      <c r="A11" s="4">
+        <v>42285</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17"/>
+      <c r="A12" s="4">
+        <v>42291</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>

--- a/Tagebuch/02_Tagebuch_Wang.xlsx
+++ b/Tagebuch/02_Tagebuch_Wang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -55,21 +55,6 @@
   </si>
   <si>
     <t>Ideensammlung</t>
-  </si>
-  <si>
-    <t>Feinplannung erstellt</t>
-  </si>
-  <si>
-    <t>Feinplannung erweitert</t>
-  </si>
-  <si>
-    <t>Feinplannung fertiggestellt</t>
-  </si>
-  <si>
-    <t>Mit XNA herumgespielt</t>
-  </si>
-  <si>
-    <t>Spieloberflächedesign</t>
   </si>
 </sst>
 </file>
@@ -287,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -352,9 +337,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +649,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,99 +732,45 @@
       <c r="A6" s="4">
         <v>42271</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>42275</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>42277</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>42277</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
-        <v>42278</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>42285</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>42291</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13">
-        <v>1</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>

--- a/Tagebuch/02_Tagebuch_Wang.xlsx
+++ b/Tagebuch/02_Tagebuch_Wang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Documents\GitHub\GrowIt\Tagebuch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Desktop\Tagebuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Datum</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Spieloberflächedesign</t>
+  </si>
+  <si>
+    <t>Landschaften gezeichnet</t>
   </si>
 </sst>
 </file>
@@ -347,14 +350,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +670,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,14 +684,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="23"/>
       <c r="F1" s="20"/>
       <c r="G1" s="19"/>
     </row>
@@ -803,7 +806,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="21">
         <v>42278</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -845,16 +848,32 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="4">
+        <v>42298</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="4">
+        <v>42299</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
